--- a/liquibase-GHA-inputs.xlsx
+++ b/liquibase-GHA-inputs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satish.bansode\Documents\GitHub\connect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB2CA37-F287-4AA5-8382-6B08A01F6B18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997B50FF-1B9C-4761-BF55-A7762F7FFCB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{3D871B3A-A5A3-42CD-8B04-27DCE78EC1F8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="131">
   <si>
     <t>Check Run</t>
   </si>
@@ -468,7 +468,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,6 +478,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,17 +500,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63FDC8F-DF0F-426B-BE32-C540C94E5898}">
   <dimension ref="D1:S120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -932,7 +946,9 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -946,53 +962,53 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="4:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="3" t="s">
+    <row r="7" spans="4:19" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="I7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1127,30 +1143,30 @@
         <v>1</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="8" t="s">
         <v>91</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>91</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q12" s="2" t="s">
+      <c r="N12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q12" s="8" t="s">
         <v>91</v>
       </c>
       <c r="R12" s="2" t="s">
@@ -2045,17 +2061,17 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M40" s="2" t="s">
+      <c r="L40" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M40" s="8" t="s">
         <v>91</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P40" s="2" t="s">
+      <c r="O40" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P40" s="8" t="s">
         <v>91</v>
       </c>
       <c r="Q40" s="2"/>
@@ -2100,43 +2116,43 @@
       <c r="F42" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H42" s="2" t="s">
+      <c r="G42" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" s="8" t="s">
         <v>91</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S42" s="2" t="s">
+      <c r="J42" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P42" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q42" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="R42" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="S42" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3668,53 +3684,53 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D74" s="1" t="s">
+    <row r="74" spans="4:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D74" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F74" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q74" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="R74" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S74" s="2" t="s">
+      <c r="E74" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F74" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O74" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P74" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q74" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="R74" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="S74" s="6" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4728,13 +4744,13 @@
       <c r="F95" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="G95" s="8" t="s">
         <v>91</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="I95" s="8" t="s">
         <v>91</v>
       </c>
       <c r="J95" s="2" t="s">
